--- a/DOWNLOADS/EDITAIS/U_989983_E_900572025/U_989983_E_900572025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_989983_E_900572025/U_989983_E_900572025_master.xlsx
@@ -328,7 +328,7 @@
     <t>BALDE LIXEIRA SEM PEDAL: em plástico, com tampa vai e vem Injetadas em plástico polipropileno (PP), possui superfície polida para facilitar a higienização e evitar o acúmulo de sujidade, tampa basculante que não permite o contato direto com o lixo. Acompanha 4 (quatro) ganchos plásticos para fixação do saco de lixo. Cor: azul.</t>
   </si>
   <si>
-    <t>BANQUETA DOBRÁVEL: estrutura de aço tubular reforçado pintado na cor cinza com apoio para os pés. Assento circular composto de aglomerado, forrado com espuma e coberto por tecido "corino" na cor preta. Peso suportado pela banqueta de no mínimo 100Kg. Altura mínima de 45 cm do chão, diâmetro do assento mínimo de 30 cm. Garantia de 01 ano do fabricante e assistência técnica autorizada em Curitiba ou região metropolitana.</t>
+    <t>BANQUETA DOBRÁVEL: estrutura de aço tubular reforçado pintado na cor cinza com apoio para os pés. Assento circular com composto de aglomerado, forrado com espuma e coberto por tecido "corino" na cor preta. Peso suportado pela banqueta de no mínimo 100Kg. Altura mínima de 45 cm do chão, diâmetro do assento mínimo de 30 cm. Garantia de 01 ano do fabricante e assistência técnica autorizada em Curitiba ou região metropolitana.</t>
   </si>
   <si>
     <t>CADEIRA DE ESCRITÓRIO GIRATÓRIA ERGONÔMICA: deve possuir rodízio, braços e encosto ajustáveis, regulagem de altura, em conformidade com a ABNT. Medidas do assento: 60L x 50P, capacidade 200kg, estrutura toda reforçada, assento e encosto em espuma de alta densidade, rodízios em nylon duplo reforçado, regulagem de altura do assento por pistão a gás, base em aço, braços fixos, braços e base em tubos de aço de secção elíptica, com acabamento preto, revestimento em couro sintético na cor preta.</t>
@@ -373,7 +373,7 @@
     <t>ESCADA CLÍNICA 02 DEGRAUS: toda em aço inox ou aço com revestimento anticorrosivo de cor branca, reforçada, com degraus revestidos em borracha antiderrapante, pés com ponteiras em borracha. Garantia de 12 meses.</t>
   </si>
   <si>
-    <t>ESFIGMOMANÔMETRO ANEROIDE PARA OBESO - montado em armação de material plástico, envolta por amortecedor emborrachado para maior resistência a quedas. Deverá ser resistente a desregulagem frequente, com graduação de 00 a 300 mm Hg. Possibilitar giro de 360º sobre seu eixo para facilitar visualização. Braçadeira - confeccionada em nylon siliconado, de 1ª qualidade, antialérgico, resistente, extremidade flexível, impermeável. Fecho com velcro resistente. Deverá conter a marca do fabricante, indicação do tamanho da circunferência do braço, com o comprimento total de 54 centímetros, largura de 14,5 centímetros, indicado para verificação adequada da pressão arterial em adultos e conter indicação do ponto correto de posicionamento sobre a artéria. Válvula - peça em metal leve, de mecanismos nas operações de retenção e esvaziamento do ar comprimido. Manguito: adulto, ambidestro, antialérgico, libre de látex; Bolsa e pêra - confeccionadas em borracha especial de comprovada vedação e resistência, livre de látex; deverá possuir identificação da marca e fabricante do produto na braçadeira e no manômetro. Embalagem - deverá ser embalado individualmente em bolsa plástica, courvin ou outro material resistente. Garantia mínima de calibração de 05 anos, comprovada através de carta do fornecedor. Os aparelhos quando entregues deverão vir acompanhados do laudo técnico do IPEM certificando sua aferição individualmente, e registro na ANVISA. Comprovar assistência técnica no Estado do Paraná. Apresentar Catálogo e Manual em português.</t>
+    <t>ESFIGMOMANÔMETRO ANEROIDE PARA OBESO - montado em armação de material plástico, envolta por amortecedor emborrachado para maior resistência a quedas. Deverá ser resistente a desregulagem frequente, com graduação de 00 a 300 mm Hg. Possibilitar giro de 360º sobre seu eixo para facilitar visualização. Braçadeira - confeccionada em nylon siliconado, de 1ª qualidade, antialérgico, resistente, extremidade flexível, impermeável. Fecho com velcro resistente. Deverá conter a marca do fabricante, indicação do tamanho da circunferência do braço, com o comprimento total de 54 centímetros, largura de 14,5 centímetros, indicado para verificação adequada da pressão arterial em adultos e conter indicação do ponto correto de posicionamento sobre a artéria. Válvula - peça em metal leve, de mecanismos nas operações de retenção e esvaziamento do ar comprimido. Manguito: adulto, ambidestro, antialérgico, livre de látex; Bolsa e pêra - confeccionadas em borracha especial de comprovada vedação e resistência, livre de látex; deverá possuir identificação da marca e fabricante do produto na braçadeira e no manômetro. Embalagem - deverá ser embalado individualmente em bolsa plástica, courvin ou outro material resistente. Garantia mínima de calibração de 05 anos, comprovada através de carta do fornecedor. Os aparelhos quando entregues deverão vir acompanhados do laudo técnico do IPEM certificando sua aferição individualmente, e registro na ANVISA. Comprovar assistência técnica no Estado do Paraná. Apresentar Catálogo e Manual em português.</t>
   </si>
   <si>
     <t>ESTADIÔMETRO: dispositivo para medidas antropométricas, tipo régua, material: alumínio anodizado, escala métrica: mm e cm, faixa medição: cerca de 2,0 m. Componentes: com cursor deslizante, bilateral, dobrável, base metálica e tapete de borracha, portátil.</t>
